--- a/summary_data/expression_data/control_data.xlsx
+++ b/summary_data/expression_data/control_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/sepsis/summary_data/expression_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61287E0C-C8FE-0C40-8E63-FB58C67CAFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3B8618-BB6C-2D4E-AE74-9082FCC15AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{450EDD2D-99E2-A84F-A0C5-DC8DDB439DC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>GSE54514</t>
+  </si>
+  <si>
+    <t>GSE40586</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDE44FF-F7C8-F447-82CB-5FAF84FD438F}">
   <dimension ref="A1:BI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B65"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2834,7 +2837,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
@@ -3019,7 +3022,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -3204,7 +3207,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -3389,7 +3392,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -3574,7 +3577,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -3759,7 +3762,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -3944,7 +3947,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -4129,7 +4132,7 @@
         <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
@@ -4314,7 +4317,7 @@
         <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -4499,7 +4502,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
@@ -4684,7 +4687,7 @@
         <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
@@ -4869,7 +4872,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -5054,7 +5057,7 @@
         <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
@@ -5239,7 +5242,7 @@
         <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
@@ -5424,7 +5427,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
@@ -5609,7 +5612,7 @@
         <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -5794,7 +5797,7 @@
         <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
@@ -5979,7 +5982,7 @@
         <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
